--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
   <si>
     <t>first</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>prof_total</t>
+  </si>
+  <si>
+    <t>30 seater bus at disposal 4 hours for dinner</t>
   </si>
   <si>
     <t>Bus at disposal for a full day in Valencia. 10 hours.</t>
@@ -11476,7 +11479,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -11765,21 +11768,21 @@
     <row r="18" ht="13.7" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D18" t="s" s="103">
+      <c r="C18" s="130">
+        <v>43748</v>
+      </c>
+      <c r="D18" t="s" s="104">
         <v>340</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="105">
         <v>1</v>
       </c>
-      <c r="F18" s="97">
-        <v>655</v>
-      </c>
-      <c r="G18" s="98">
+      <c r="F18" s="101">
+        <v>400</v>
+      </c>
+      <c r="G18" s="102">
         <f>E18*F18</f>
-        <v>655</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s" s="93">
         <v>293</v>
@@ -11787,137 +11790,137 @@
     </row>
     <row r="19" ht="13.7" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="107">
+      <c r="B19" s="72"/>
+      <c r="C19" s="131">
         <v>43749</v>
       </c>
-      <c r="D19" t="s" s="104">
-        <v>300</v>
-      </c>
-      <c r="E19" s="105">
+      <c r="D19" t="s" s="103">
+        <v>341</v>
+      </c>
+      <c r="E19" s="96">
         <v>1</v>
       </c>
-      <c r="F19" s="101">
-        <v>340</v>
-      </c>
-      <c r="G19" s="102">
+      <c r="F19" s="97">
+        <v>655</v>
+      </c>
+      <c r="G19" s="98">
         <f>E19*F19</f>
-        <v>340</v>
+        <v>655</v>
       </c>
       <c r="H19" t="s" s="93">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" ht="13.7" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="131">
+      <c r="B20" s="129"/>
+      <c r="C20" s="107">
         <v>43749</v>
       </c>
-      <c r="D20" t="s" s="103">
-        <v>301</v>
-      </c>
-      <c r="E20" s="96">
-        <v>10</v>
-      </c>
-      <c r="F20" s="97">
-        <v>8.5</v>
-      </c>
-      <c r="G20" s="98">
-        <f>F20*E20</f>
-        <v>85</v>
+      <c r="D20" t="s" s="104">
+        <v>300</v>
+      </c>
+      <c r="E20" s="105">
+        <v>1</v>
+      </c>
+      <c r="F20" s="101">
+        <v>340</v>
+      </c>
+      <c r="G20" s="102">
+        <f>E20*F20</f>
+        <v>340</v>
       </c>
       <c r="H20" t="s" s="93">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" ht="13.7" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="107">
+      <c r="B21" s="72"/>
+      <c r="C21" s="131">
         <v>43749</v>
       </c>
-      <c r="D21" t="s" s="104">
+      <c r="D21" t="s" s="103">
+        <v>301</v>
+      </c>
+      <c r="E21" s="96">
+        <v>10</v>
+      </c>
+      <c r="F21" s="97">
+        <v>8.5</v>
+      </c>
+      <c r="G21" s="98">
+        <f>F21*E21</f>
+        <v>85</v>
+      </c>
+      <c r="H21" t="s" s="93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" ht="13.7" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D22" t="s" s="104">
         <v>303</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E22" s="105">
         <v>10</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F22" s="101">
         <v>5</v>
       </c>
-      <c r="G21" s="102">
-        <f>E21*F21</f>
+      <c r="G22" s="102">
+        <f>E22*F22</f>
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="93">
+      <c r="H22" t="s" s="93">
         <v>297</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D22" t="s" s="103">
-        <v>304</v>
-      </c>
-      <c r="E22" s="96">
-        <v>10</v>
-      </c>
-      <c r="F22" s="97">
-        <v>49</v>
-      </c>
-      <c r="G22" s="98">
-        <f>E22*F22</f>
-        <v>490</v>
-      </c>
-      <c r="H22" t="s" s="93">
-        <v>302</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="107">
+      <c r="B23" s="72"/>
+      <c r="C23" s="131">
         <v>43749</v>
       </c>
-      <c r="D23" t="s" s="104">
+      <c r="D23" t="s" s="103">
+        <v>304</v>
+      </c>
+      <c r="E23" s="96">
+        <v>10</v>
+      </c>
+      <c r="F23" s="97">
+        <v>49</v>
+      </c>
+      <c r="G23" s="98">
+        <f>E23*F23</f>
+        <v>490</v>
+      </c>
+      <c r="H23" t="s" s="93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D24" t="s" s="104">
         <v>305</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E24" s="105">
         <v>10</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F24" s="101">
         <v>16</v>
       </c>
-      <c r="G23" s="102">
-        <f>E23*F23</f>
+      <c r="G24" s="102">
+        <f>E24*F24</f>
         <v>160</v>
-      </c>
-      <c r="H23" t="s" s="93">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D24" t="s" s="103">
-        <v>306</v>
-      </c>
-      <c r="E24" s="96">
-        <v>1</v>
-      </c>
-      <c r="F24" s="97">
-        <v>78</v>
-      </c>
-      <c r="G24" s="98">
-        <f>E24*F24</f>
-        <v>78</v>
       </c>
       <c r="H24" t="s" s="93">
         <v>297</v>
@@ -11925,207 +11928,207 @@
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="107">
+      <c r="B25" s="72"/>
+      <c r="C25" s="131">
         <v>43749</v>
       </c>
-      <c r="D25" t="s" s="108">
+      <c r="D25" t="s" s="103">
+        <v>306</v>
+      </c>
+      <c r="E25" s="96">
+        <v>1</v>
+      </c>
+      <c r="F25" s="97">
+        <v>78</v>
+      </c>
+      <c r="G25" s="98">
+        <f>E25*F25</f>
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="93">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D26" t="s" s="108">
         <v>307</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E26" s="105">
         <v>1</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F26" s="105">
         <v>28</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G26" s="105">
         <v>0</v>
       </c>
-      <c r="H25" t="s" s="109">
+      <c r="H26" t="s" s="109">
         <v>297</v>
       </c>
     </row>
-    <row r="26" ht="24.6" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="131">
+    <row r="27" ht="24.6" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="131">
         <v>43749</v>
       </c>
-      <c r="D26" t="s" s="103">
+      <c r="D27" t="s" s="103">
         <v>308</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E27" s="96">
         <v>10</v>
       </c>
-      <c r="F26" s="97">
+      <c r="F27" s="97">
         <f>14</f>
         <v>14</v>
       </c>
-      <c r="G26" s="98">
-        <f>E26*F26</f>
+      <c r="G27" s="98">
+        <f>E27*F27</f>
         <v>140</v>
       </c>
-      <c r="H26" t="s" s="93">
+      <c r="H27" t="s" s="93">
         <v>302</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="107">
-        <v>43749</v>
-      </c>
-      <c r="D27" t="s" s="110">
-        <v>309</v>
-      </c>
-      <c r="E27" s="105">
-        <v>1</v>
-      </c>
-      <c r="F27" s="105">
-        <v>500</v>
-      </c>
-      <c r="G27" s="105">
-        <f>E27*F27</f>
-        <v>500</v>
-      </c>
-      <c r="H27" t="s" s="109">
-        <v>293</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="131">
+      <c r="B28" s="129"/>
+      <c r="C28" s="107">
         <v>43749</v>
       </c>
-      <c r="D28" t="s" s="95">
-        <v>310</v>
-      </c>
-      <c r="E28" s="96">
+      <c r="D28" t="s" s="110">
+        <v>309</v>
+      </c>
+      <c r="E28" s="105">
         <v>1</v>
       </c>
-      <c r="F28" s="97">
-        <v>4000</v>
-      </c>
-      <c r="G28" s="98">
+      <c r="F28" s="105">
+        <v>500</v>
+      </c>
+      <c r="G28" s="105">
         <f>E28*F28</f>
-        <v>4000</v>
-      </c>
-      <c r="H28" t="s" s="93">
-        <v>302</v>
+        <v>500</v>
+      </c>
+      <c r="H28" t="s" s="109">
+        <v>293</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="107">
+      <c r="B29" s="72"/>
+      <c r="C29" s="131">
         <v>43749</v>
       </c>
-      <c r="D29" t="s" s="108">
-        <v>311</v>
-      </c>
-      <c r="E29" s="105">
-        <v>22</v>
-      </c>
-      <c r="F29" s="105">
-        <v>73.5</v>
-      </c>
-      <c r="G29" s="105">
+      <c r="D29" t="s" s="95">
+        <v>310</v>
+      </c>
+      <c r="E29" s="96">
+        <v>1</v>
+      </c>
+      <c r="F29" s="97">
+        <v>4000</v>
+      </c>
+      <c r="G29" s="98">
         <f>E29*F29</f>
-        <v>1617</v>
-      </c>
-      <c r="H29" t="s" s="109">
+        <v>4000</v>
+      </c>
+      <c r="H29" t="s" s="93">
         <v>302</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="131">
+      <c r="B30" s="129"/>
+      <c r="C30" s="107">
         <v>43749</v>
       </c>
-      <c r="D30" t="s" s="111">
-        <v>341</v>
-      </c>
-      <c r="E30" s="96">
-        <v>0</v>
-      </c>
-      <c r="F30" s="97">
-        <v>0</v>
-      </c>
-      <c r="G30" s="98">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s" s="93">
+      <c r="D30" t="s" s="108">
+        <v>311</v>
+      </c>
+      <c r="E30" s="105">
+        <v>22</v>
+      </c>
+      <c r="F30" s="105">
+        <v>73.5</v>
+      </c>
+      <c r="G30" s="105">
+        <f>E30*F30</f>
+        <v>1617</v>
+      </c>
+      <c r="H30" t="s" s="109">
         <v>302</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="71"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="107">
-        <v>43750</v>
-      </c>
-      <c r="D31" t="s" s="108">
-        <v>312</v>
-      </c>
-      <c r="E31" s="105">
-        <v>1</v>
-      </c>
-      <c r="F31" s="105">
-        <v>358.75</v>
-      </c>
-      <c r="G31" s="105">
-        <f>E31*F31</f>
-        <v>358.75</v>
-      </c>
-      <c r="H31" t="s" s="109">
-        <v>297</v>
+      <c r="B31" s="72"/>
+      <c r="C31" s="131">
+        <v>43749</v>
+      </c>
+      <c r="D31" t="s" s="111">
+        <v>342</v>
+      </c>
+      <c r="E31" s="96">
+        <v>0</v>
+      </c>
+      <c r="F31" s="97">
+        <v>0</v>
+      </c>
+      <c r="G31" s="98">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s" s="93">
+        <v>302</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="129"/>
-      <c r="C32" s="106">
+      <c r="C32" s="107">
         <v>43750</v>
       </c>
-      <c r="D32" t="s" s="95">
-        <v>313</v>
-      </c>
-      <c r="E32" s="96">
-        <v>0</v>
-      </c>
-      <c r="F32" s="97">
-        <v>70</v>
-      </c>
-      <c r="G32" s="98">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s" s="93">
-        <v>293</v>
+      <c r="D32" t="s" s="108">
+        <v>312</v>
+      </c>
+      <c r="E32" s="105">
+        <v>1</v>
+      </c>
+      <c r="F32" s="105">
+        <v>358.75</v>
+      </c>
+      <c r="G32" s="105">
+        <f>E32*F32</f>
+        <v>358.75</v>
+      </c>
+      <c r="H32" t="s" s="109">
+        <v>297</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="129"/>
-      <c r="C33" s="107">
+      <c r="C33" s="106">
         <v>43750</v>
       </c>
-      <c r="D33" t="s" s="108">
-        <v>314</v>
-      </c>
-      <c r="E33" s="105">
-        <v>10</v>
-      </c>
-      <c r="F33" s="105">
-        <v>15</v>
-      </c>
-      <c r="G33" s="105">
-        <f>E33*F33</f>
-        <v>150</v>
-      </c>
-      <c r="H33" t="s" s="109">
-        <v>297</v>
+      <c r="D33" t="s" s="95">
+        <v>313</v>
+      </c>
+      <c r="E33" s="96">
+        <v>0</v>
+      </c>
+      <c r="F33" s="97">
+        <v>70</v>
+      </c>
+      <c r="G33" s="98">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s" s="93">
+        <v>293</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -12135,206 +12138,206 @@
         <v>43750</v>
       </c>
       <c r="D34" t="s" s="108">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34" s="105">
         <v>10</v>
       </c>
       <c r="F34" s="105">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="G34" s="105">
         <f>E34*F34</f>
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s" s="109">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="129"/>
-      <c r="C35" s="106">
+      <c r="C35" s="107">
         <v>43750</v>
       </c>
-      <c r="D35" t="s" s="103">
-        <v>316</v>
-      </c>
-      <c r="E35" s="96">
+      <c r="D35" t="s" s="108">
+        <v>315</v>
+      </c>
+      <c r="E35" s="105">
         <v>10</v>
       </c>
-      <c r="F35" s="97">
-        <v>51.25</v>
-      </c>
-      <c r="G35" s="98">
+      <c r="F35" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="G35" s="105">
         <f>E35*F35</f>
-        <v>512.5</v>
-      </c>
-      <c r="H35" t="s" s="93">
-        <v>297</v>
+        <v>35</v>
+      </c>
+      <c r="H35" t="s" s="109">
+        <v>343</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="129"/>
-      <c r="C36" s="107">
+      <c r="C36" s="106">
         <v>43750</v>
       </c>
-      <c r="D36" t="s" s="108">
-        <v>317</v>
-      </c>
-      <c r="E36" s="105">
-        <v>1</v>
-      </c>
-      <c r="F36" s="101">
-        <f>4125</f>
-        <v>4125</v>
-      </c>
-      <c r="G36" s="101">
+      <c r="D36" t="s" s="103">
+        <v>316</v>
+      </c>
+      <c r="E36" s="96">
+        <v>10</v>
+      </c>
+      <c r="F36" s="97">
+        <v>51.25</v>
+      </c>
+      <c r="G36" s="98">
         <f>E36*F36</f>
-        <v>4125</v>
-      </c>
-      <c r="H36" t="s" s="109">
+        <v>512.5</v>
+      </c>
+      <c r="H36" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="71"/>
       <c r="B37" s="129"/>
-      <c r="C37" s="106">
+      <c r="C37" s="107">
         <v>43750</v>
       </c>
-      <c r="D37" t="s" s="111">
-        <v>318</v>
-      </c>
-      <c r="E37" s="96">
+      <c r="D37" t="s" s="108">
+        <v>317</v>
+      </c>
+      <c r="E37" s="105">
         <v>1</v>
       </c>
-      <c r="F37" s="97">
-        <f>1440</f>
-        <v>1440</v>
-      </c>
-      <c r="G37" s="98">
+      <c r="F37" s="101">
+        <f>4125</f>
+        <v>4125</v>
+      </c>
+      <c r="G37" s="101">
         <f>E37*F37</f>
-        <v>1440</v>
-      </c>
-      <c r="H37" t="s" s="93">
+        <v>4125</v>
+      </c>
+      <c r="H37" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="129"/>
-      <c r="C38" s="107">
+      <c r="C38" s="106">
         <v>43750</v>
       </c>
-      <c r="D38" t="s" s="108">
-        <v>319</v>
-      </c>
-      <c r="E38" s="105">
+      <c r="D38" t="s" s="111">
+        <v>318</v>
+      </c>
+      <c r="E38" s="96">
         <v>1</v>
       </c>
-      <c r="F38" s="101">
-        <v>650</v>
-      </c>
-      <c r="G38" s="101">
+      <c r="F38" s="97">
+        <f>1440</f>
+        <v>1440</v>
+      </c>
+      <c r="G38" s="98">
         <f>E38*F38</f>
-        <v>650</v>
-      </c>
-      <c r="H38" t="s" s="109">
+        <v>1440</v>
+      </c>
+      <c r="H38" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="129"/>
-      <c r="C39" s="106">
+      <c r="C39" s="107">
         <v>43750</v>
       </c>
-      <c r="D39" t="s" s="103">
-        <v>320</v>
-      </c>
-      <c r="E39" s="96">
+      <c r="D39" t="s" s="108">
+        <v>319</v>
+      </c>
+      <c r="E39" s="105">
         <v>1</v>
       </c>
-      <c r="F39" s="97">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="G39" s="98">
-        <f>F39*E39</f>
-        <v>220</v>
-      </c>
-      <c r="H39" t="s" s="93">
+      <c r="F39" s="101">
+        <v>650</v>
+      </c>
+      <c r="G39" s="101">
+        <f>E39*F39</f>
+        <v>650</v>
+      </c>
+      <c r="H39" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="129"/>
-      <c r="C40" s="107">
+      <c r="C40" s="106">
         <v>43750</v>
       </c>
-      <c r="D40" t="s" s="108">
-        <v>321</v>
-      </c>
-      <c r="E40" s="105">
+      <c r="D40" t="s" s="103">
+        <v>320</v>
+      </c>
+      <c r="E40" s="96">
         <v>1</v>
       </c>
-      <c r="F40" s="101">
+      <c r="F40" s="97">
+        <f>220</f>
         <v>220</v>
       </c>
-      <c r="G40" s="101">
-        <f>E40*F40</f>
+      <c r="G40" s="98">
+        <f>F40*E40</f>
         <v>220</v>
       </c>
-      <c r="H40" t="s" s="109">
+      <c r="H40" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="129"/>
-      <c r="C41" s="106">
+      <c r="C41" s="107">
         <v>43750</v>
       </c>
-      <c r="D41" t="s" s="103">
-        <v>322</v>
-      </c>
-      <c r="E41" s="96">
+      <c r="D41" t="s" s="108">
+        <v>321</v>
+      </c>
+      <c r="E41" s="105">
         <v>1</v>
       </c>
-      <c r="F41" s="97">
-        <v>35</v>
-      </c>
-      <c r="G41" s="98">
+      <c r="F41" s="101">
+        <v>220</v>
+      </c>
+      <c r="G41" s="101">
         <f>E41*F41</f>
-        <v>35</v>
-      </c>
-      <c r="H41" t="s" s="93">
+        <v>220</v>
+      </c>
+      <c r="H41" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="129"/>
-      <c r="C42" s="107">
+      <c r="C42" s="106">
         <v>43750</v>
       </c>
-      <c r="D42" t="s" s="108">
-        <v>323</v>
-      </c>
-      <c r="E42" s="105">
-        <v>22</v>
-      </c>
-      <c r="F42" s="101">
-        <v>25</v>
-      </c>
-      <c r="G42" s="101">
+      <c r="D42" t="s" s="103">
+        <v>322</v>
+      </c>
+      <c r="E42" s="96">
+        <v>1</v>
+      </c>
+      <c r="F42" s="97">
+        <v>35</v>
+      </c>
+      <c r="G42" s="98">
         <f>E42*F42</f>
-        <v>550</v>
-      </c>
-      <c r="H42" t="s" s="109">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s" s="93">
         <v>297</v>
       </c>
     </row>
@@ -12345,17 +12348,17 @@
         <v>43750</v>
       </c>
       <c r="D43" t="s" s="108">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E43" s="105">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F43" s="101">
-        <v>3800</v>
+        <v>25</v>
       </c>
       <c r="G43" s="101">
         <f>E43*F43</f>
-        <v>3800</v>
+        <v>550</v>
       </c>
       <c r="H43" t="s" s="109">
         <v>297</v>
@@ -12364,21 +12367,21 @@
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="129"/>
-      <c r="C44" s="106">
+      <c r="C44" s="107">
         <v>43750</v>
       </c>
-      <c r="D44" t="s" s="103">
+      <c r="D44" t="s" s="108">
         <v>344</v>
       </c>
-      <c r="E44" s="112">
+      <c r="E44" s="105">
         <v>1</v>
       </c>
-      <c r="F44" s="113">
-        <v>950</v>
-      </c>
-      <c r="G44" s="113">
+      <c r="F44" s="101">
+        <v>3800</v>
+      </c>
+      <c r="G44" s="101">
         <f>E44*F44</f>
-        <v>950</v>
+        <v>3800</v>
       </c>
       <c r="H44" t="s" s="109">
         <v>297</v>
@@ -12391,132 +12394,143 @@
         <v>43750</v>
       </c>
       <c r="D45" t="s" s="103">
-        <v>326</v>
-      </c>
-      <c r="E45" s="96">
-        <v>22</v>
-      </c>
-      <c r="F45" s="97">
-        <v>30</v>
-      </c>
-      <c r="G45" s="98">
+        <v>345</v>
+      </c>
+      <c r="E45" s="112">
+        <v>1</v>
+      </c>
+      <c r="F45" s="113">
+        <v>950</v>
+      </c>
+      <c r="G45" s="113">
         <f>E45*F45</f>
-        <v>660</v>
-      </c>
-      <c r="H45" t="s" s="93">
+        <v>950</v>
+      </c>
+      <c r="H45" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="71"/>
       <c r="B46" s="129"/>
-      <c r="C46" s="107">
+      <c r="C46" s="106">
         <v>43750</v>
       </c>
-      <c r="D46" t="s" s="108">
-        <v>327</v>
-      </c>
-      <c r="E46" s="105">
-        <v>2</v>
-      </c>
-      <c r="F46" s="101">
-        <v>220</v>
-      </c>
-      <c r="G46" s="101">
+      <c r="D46" t="s" s="103">
+        <v>326</v>
+      </c>
+      <c r="E46" s="96">
+        <v>22</v>
+      </c>
+      <c r="F46" s="97">
+        <v>30</v>
+      </c>
+      <c r="G46" s="98">
         <f>E46*F46</f>
-        <v>440</v>
-      </c>
-      <c r="H46" t="s" s="109">
-        <v>293</v>
+        <v>660</v>
+      </c>
+      <c r="H46" t="s" s="93">
+        <v>297</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="71"/>
       <c r="B47" s="129"/>
-      <c r="C47" s="106">
+      <c r="C47" s="107">
         <v>43750</v>
       </c>
-      <c r="D47" t="s" s="103">
-        <v>328</v>
-      </c>
-      <c r="E47" s="96">
-        <v>0</v>
-      </c>
-      <c r="F47" s="97">
-        <v>45</v>
-      </c>
-      <c r="G47" s="98">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s" s="93">
+      <c r="D47" t="s" s="108">
+        <v>327</v>
+      </c>
+      <c r="E47" s="105">
+        <v>2</v>
+      </c>
+      <c r="F47" s="101">
+        <v>220</v>
+      </c>
+      <c r="G47" s="101">
+        <f>E47*F47</f>
+        <v>440</v>
+      </c>
+      <c r="H47" t="s" s="109">
         <v>293</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="71"/>
       <c r="B48" s="129"/>
-      <c r="C48" s="132">
-        <v>43751</v>
-      </c>
-      <c r="D48" t="s" s="133">
-        <v>329</v>
-      </c>
-      <c r="E48" s="134">
-        <v>1</v>
-      </c>
-      <c r="F48" s="135">
-        <v>345</v>
-      </c>
-      <c r="G48" s="135">
-        <f>E48*F48</f>
-        <v>345</v>
-      </c>
-      <c r="H48" t="s" s="109">
+      <c r="C48" s="106">
+        <v>43750</v>
+      </c>
+      <c r="D48" t="s" s="103">
+        <v>328</v>
+      </c>
+      <c r="E48" s="96">
+        <v>0</v>
+      </c>
+      <c r="F48" s="97">
+        <v>45</v>
+      </c>
+      <c r="G48" s="98">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s" s="93">
         <v>293</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="71"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="136"/>
-      <c r="D49" t="s" s="137">
+      <c r="B49" s="129"/>
+      <c r="C49" s="132">
+        <v>43751</v>
+      </c>
+      <c r="D49" t="s" s="133">
+        <v>329</v>
+      </c>
+      <c r="E49" s="134">
+        <v>1</v>
+      </c>
+      <c r="F49" s="135">
         <v>345</v>
       </c>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="139">
+      <c r="G49" s="135">
+        <f>E49*F49</f>
+        <v>345</v>
+      </c>
+      <c r="H49" t="s" s="109">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="A50" s="71"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="136"/>
+      <c r="D50" t="s" s="137">
+        <v>346</v>
+      </c>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="139">
         <v>0</v>
       </c>
-      <c r="H49" s="140"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="73"/>
-    </row>
-    <row r="51" ht="13.5" customHeight="1">
+      <c r="H50" s="140"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="71"/>
       <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="142"/>
       <c r="H51" s="73"/>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="71"/>
       <c r="B52" s="72"/>
-      <c r="C52" s="126"/>
-      <c r="D52" t="s" s="143">
-        <v>346</v>
-      </c>
-      <c r="E52" s="77"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="72"/>
       <c r="G52" s="72"/>
       <c r="H52" s="73"/>
@@ -12525,7 +12539,7 @@
       <c r="A53" s="71"/>
       <c r="B53" s="72"/>
       <c r="C53" s="126"/>
-      <c r="D53" t="s" s="144">
+      <c r="D53" t="s" s="143">
         <v>347</v>
       </c>
       <c r="E53" s="77"/>
@@ -12533,11 +12547,11 @@
       <c r="G53" s="72"/>
       <c r="H53" s="73"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="71"/>
       <c r="B54" s="72"/>
       <c r="C54" s="126"/>
-      <c r="D54" t="s" s="145">
+      <c r="D54" t="s" s="144">
         <v>348</v>
       </c>
       <c r="E54" s="77"/>
@@ -12557,11 +12571,11 @@
       <c r="G55" s="72"/>
       <c r="H55" s="73"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="71"/>
       <c r="B56" s="72"/>
       <c r="C56" s="126"/>
-      <c r="D56" t="s" s="146">
+      <c r="D56" t="s" s="145">
         <v>350</v>
       </c>
       <c r="E56" s="77"/>
@@ -12569,12 +12583,14 @@
       <c r="G56" s="72"/>
       <c r="H56" s="73"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="71"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="72"/>
+      <c r="C57" s="126"/>
+      <c r="D57" t="s" s="146">
+        <v>351</v>
+      </c>
+      <c r="E57" s="77"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73"/>
@@ -12583,7 +12599,7 @@
       <c r="A58" s="71"/>
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="72"/>
       <c r="F58" s="72"/>
       <c r="G58" s="72"/>
@@ -12622,20 +12638,18 @@
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="71"/>
       <c r="B62" s="72"/>
-      <c r="C62" t="s" s="119">
-        <v>332</v>
-      </c>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
       <c r="H62" s="73"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="71"/>
       <c r="B63" s="72"/>
       <c r="C63" t="s" s="119">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D63" s="120"/>
       <c r="E63" s="120"/>
@@ -12647,7 +12661,7 @@
       <c r="A64" s="71"/>
       <c r="B64" s="72"/>
       <c r="C64" t="s" s="119">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D64" s="120"/>
       <c r="E64" s="120"/>
@@ -12656,14 +12670,26 @@
       <c r="H64" s="73"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="122"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="124"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="72"/>
+      <c r="C65" t="s" s="119">
+        <v>334</v>
+      </c>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="73"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="A66" s="122"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12696,13 +12722,13 @@
   <sheetData>
     <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="149">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="149">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s" s="149">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -12715,7 +12741,7 @@
         <v>2586.15</v>
       </c>
       <c r="C2" t="s" s="153">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -12728,7 +12754,7 @@
         <v>4417.5</v>
       </c>
       <c r="C3" t="s" s="157">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
@@ -12741,7 +12767,7 @@
         <v>4417.5</v>
       </c>
       <c r="C4" t="s" s="157">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="158"/>
@@ -12751,10 +12777,10 @@
         <v>43723</v>
       </c>
       <c r="B5" s="156">
-        <v>6079.55</v>
+        <v>6279.55</v>
       </c>
       <c r="C5" t="s" s="157">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -12764,10 +12790,10 @@
         <v>43741</v>
       </c>
       <c r="B6" s="156">
-        <v>6079.55</v>
+        <v>6279.55</v>
       </c>
       <c r="C6" t="s" s="157">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>first</t>
   </si>
@@ -1059,9 +1059,18 @@
     <t>30 seater bus at disposal 4 hours for dinner</t>
   </si>
   <si>
+    <t>Dinner at La Viña de Calpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner at Mandala Beach Bar </t>
+  </si>
+  <si>
     <t>Bus at disposal for a full day in Valencia. 10 hours.</t>
   </si>
   <si>
+    <t>Bus transfer - 6 hours at disposal for dinner - hotel - Bay club - hotel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drinks after dinner upon request - no open bar - pending to confirm by client </t>
   </si>
   <si>
@@ -1072,6 +1081,9 @@
   </si>
   <si>
     <t>Two cocktail shakers on board. For cocktails. 3 hours.</t>
+  </si>
+  <si>
+    <t>Minivan shuttle. 2 minivans from 20:00 to 00:30. Hotel - Beat</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -11479,7 +11491,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -11791,47 +11803,47 @@
     <row r="19" ht="13.7" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D19" t="s" s="103">
+      <c r="C19" s="130">
+        <v>43748</v>
+      </c>
+      <c r="D19" t="s" s="104">
         <v>341</v>
       </c>
-      <c r="E19" s="96">
-        <v>1</v>
-      </c>
-      <c r="F19" s="97">
-        <v>655</v>
-      </c>
-      <c r="G19" s="98">
+      <c r="E19" s="105">
+        <v>22</v>
+      </c>
+      <c r="F19" s="101">
+        <v>52</v>
+      </c>
+      <c r="G19" s="102">
         <f>E19*F19</f>
-        <v>655</v>
+        <v>1144</v>
       </c>
       <c r="H19" t="s" s="93">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" ht="13.7" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="107">
-        <v>43749</v>
+      <c r="B20" s="72"/>
+      <c r="C20" s="130">
+        <v>43748</v>
       </c>
       <c r="D20" t="s" s="104">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="E20" s="105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="101">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="G20" s="102">
         <f>E20*F20</f>
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s" s="93">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" ht="13.7" customHeight="1">
@@ -11841,20 +11853,20 @@
         <v>43749</v>
       </c>
       <c r="D21" t="s" s="103">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="E21" s="96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="97">
-        <v>8.5</v>
+        <v>655</v>
       </c>
       <c r="G21" s="98">
-        <f>F21*E21</f>
-        <v>85</v>
+        <f>E21*F21</f>
+        <v>655</v>
       </c>
       <c r="H21" t="s" s="93">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" ht="13.7" customHeight="1">
@@ -11864,135 +11876,135 @@
         <v>43749</v>
       </c>
       <c r="D22" t="s" s="104">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E22" s="105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F22" s="101">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="G22" s="102">
         <f>E22*F22</f>
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="H22" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="23" ht="25.5" customHeight="1">
+    <row r="23" ht="13.7" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
       <c r="C23" s="131">
         <v>43749</v>
       </c>
       <c r="D23" t="s" s="103">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E23" s="96">
         <v>10</v>
       </c>
       <c r="F23" s="97">
-        <v>49</v>
+        <v>8.5</v>
       </c>
       <c r="G23" s="98">
-        <f>E23*F23</f>
-        <v>490</v>
+        <f>F23*E23</f>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="93">
         <v>302</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" ht="13.7" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="129"/>
       <c r="C24" s="107">
         <v>43749</v>
       </c>
       <c r="D24" t="s" s="104">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E24" s="105">
         <v>10</v>
       </c>
       <c r="F24" s="101">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G24" s="102">
         <f>E24*F24</f>
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" ht="25.5" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
       <c r="C25" s="131">
         <v>43749</v>
       </c>
       <c r="D25" t="s" s="103">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E25" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" s="97">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G25" s="98">
         <f>E25*F25</f>
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="H25" t="s" s="93">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="129"/>
       <c r="C26" s="107">
         <v>43749</v>
       </c>
-      <c r="D26" t="s" s="108">
-        <v>307</v>
+      <c r="D26" t="s" s="104">
+        <v>305</v>
       </c>
       <c r="E26" s="105">
-        <v>1</v>
-      </c>
-      <c r="F26" s="105">
-        <v>28</v>
-      </c>
-      <c r="G26" s="105">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s" s="109">
+        <v>10</v>
+      </c>
+      <c r="F26" s="101">
+        <v>16</v>
+      </c>
+      <c r="G26" s="102">
+        <f>E26*F26</f>
+        <v>160</v>
+      </c>
+      <c r="H26" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="27" ht="24.6" customHeight="1">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
       <c r="C27" s="131">
         <v>43749</v>
       </c>
       <c r="D27" t="s" s="103">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E27" s="96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" s="97">
-        <f>14</f>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G27" s="98">
         <f>E27*F27</f>
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="93">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
@@ -12001,41 +12013,41 @@
       <c r="C28" s="107">
         <v>43749</v>
       </c>
-      <c r="D28" t="s" s="110">
-        <v>309</v>
+      <c r="D28" t="s" s="108">
+        <v>307</v>
       </c>
       <c r="E28" s="105">
         <v>1</v>
       </c>
       <c r="F28" s="105">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="G28" s="105">
-        <f>E28*F28</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s" s="109">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" ht="24.6" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
       <c r="C29" s="131">
         <v>43749</v>
       </c>
-      <c r="D29" t="s" s="95">
-        <v>310</v>
+      <c r="D29" t="s" s="103">
+        <v>308</v>
       </c>
       <c r="E29" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="97">
-        <v>4000</v>
+        <f>14</f>
+        <v>14</v>
       </c>
       <c r="G29" s="98">
         <f>E29*F29</f>
-        <v>4000</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s" s="93">
         <v>302</v>
@@ -12047,21 +12059,21 @@
       <c r="C30" s="107">
         <v>43749</v>
       </c>
-      <c r="D30" t="s" s="108">
-        <v>311</v>
+      <c r="D30" t="s" s="110">
+        <v>344</v>
       </c>
       <c r="E30" s="105">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>73.5</v>
+        <v>560</v>
       </c>
       <c r="G30" s="105">
         <f>E30*F30</f>
-        <v>1617</v>
+        <v>560</v>
       </c>
       <c r="H30" t="s" s="109">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
@@ -12070,17 +12082,18 @@
       <c r="C31" s="131">
         <v>43749</v>
       </c>
-      <c r="D31" t="s" s="111">
-        <v>342</v>
+      <c r="D31" t="s" s="95">
+        <v>310</v>
       </c>
       <c r="E31" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="97">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G31" s="98">
-        <v>0</v>
+        <f>E31*F31</f>
+        <v>4000</v>
       </c>
       <c r="H31" t="s" s="93">
         <v>302</v>
@@ -12090,45 +12103,45 @@
       <c r="A32" s="71"/>
       <c r="B32" s="129"/>
       <c r="C32" s="107">
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="D32" t="s" s="108">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E32" s="105">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F32" s="105">
-        <v>358.75</v>
+        <v>73.5</v>
       </c>
       <c r="G32" s="105">
         <f>E32*F32</f>
-        <v>358.75</v>
+        <v>1617</v>
       </c>
       <c r="H32" t="s" s="109">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="71"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="106">
-        <v>43750</v>
-      </c>
-      <c r="D33" t="s" s="95">
-        <v>313</v>
+      <c r="B33" s="72"/>
+      <c r="C33" s="131">
+        <v>43749</v>
+      </c>
+      <c r="D33" t="s" s="111">
+        <v>345</v>
       </c>
       <c r="E33" s="96">
         <v>0</v>
       </c>
       <c r="F33" s="97">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G33" s="98">
         <v>0</v>
       </c>
       <c r="H33" t="s" s="93">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -12138,17 +12151,17 @@
         <v>43750</v>
       </c>
       <c r="D34" t="s" s="108">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E34" s="105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F34" s="105">
-        <v>15</v>
+        <v>358.75</v>
       </c>
       <c r="G34" s="105">
         <f>E34*F34</f>
-        <v>150</v>
+        <v>358.75</v>
       </c>
       <c r="H34" t="s" s="109">
         <v>297</v>
@@ -12157,46 +12170,45 @@
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="129"/>
-      <c r="C35" s="107">
+      <c r="C35" s="106">
         <v>43750</v>
       </c>
-      <c r="D35" t="s" s="108">
-        <v>315</v>
-      </c>
-      <c r="E35" s="105">
-        <v>10</v>
-      </c>
-      <c r="F35" s="105">
-        <v>3.5</v>
-      </c>
-      <c r="G35" s="105">
-        <f>E35*F35</f>
-        <v>35</v>
-      </c>
-      <c r="H35" t="s" s="109">
-        <v>343</v>
+      <c r="D35" t="s" s="95">
+        <v>313</v>
+      </c>
+      <c r="E35" s="96">
+        <v>0</v>
+      </c>
+      <c r="F35" s="97">
+        <v>70</v>
+      </c>
+      <c r="G35" s="98">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s" s="93">
+        <v>293</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="129"/>
-      <c r="C36" s="106">
+      <c r="C36" s="107">
         <v>43750</v>
       </c>
-      <c r="D36" t="s" s="103">
-        <v>316</v>
-      </c>
-      <c r="E36" s="96">
+      <c r="D36" t="s" s="108">
+        <v>314</v>
+      </c>
+      <c r="E36" s="105">
         <v>10</v>
       </c>
-      <c r="F36" s="97">
-        <v>51.25</v>
-      </c>
-      <c r="G36" s="98">
+      <c r="F36" s="105">
+        <v>15</v>
+      </c>
+      <c r="G36" s="105">
         <f>E36*F36</f>
-        <v>512.5</v>
-      </c>
-      <c r="H36" t="s" s="93">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s" s="109">
         <v>297</v>
       </c>
     </row>
@@ -12207,21 +12219,20 @@
         <v>43750</v>
       </c>
       <c r="D37" t="s" s="108">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E37" s="105">
-        <v>1</v>
-      </c>
-      <c r="F37" s="101">
-        <f>4125</f>
-        <v>4125</v>
-      </c>
-      <c r="G37" s="101">
+        <v>10</v>
+      </c>
+      <c r="F37" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="G37" s="105">
         <f>E37*F37</f>
-        <v>4125</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s" s="109">
-        <v>297</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
@@ -12230,19 +12241,18 @@
       <c r="C38" s="106">
         <v>43750</v>
       </c>
-      <c r="D38" t="s" s="111">
-        <v>318</v>
+      <c r="D38" t="s" s="103">
+        <v>316</v>
       </c>
       <c r="E38" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" s="97">
-        <f>1440</f>
-        <v>1440</v>
+        <v>51.25</v>
       </c>
       <c r="G38" s="98">
         <f>E38*F38</f>
-        <v>1440</v>
+        <v>512.5</v>
       </c>
       <c r="H38" t="s" s="93">
         <v>297</v>
@@ -12255,17 +12265,18 @@
         <v>43750</v>
       </c>
       <c r="D39" t="s" s="108">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E39" s="105">
         <v>1</v>
       </c>
       <c r="F39" s="101">
-        <v>650</v>
+        <f>4125</f>
+        <v>4125</v>
       </c>
       <c r="G39" s="101">
         <f>E39*F39</f>
-        <v>650</v>
+        <v>4125</v>
       </c>
       <c r="H39" t="s" s="109">
         <v>297</v>
@@ -12277,19 +12288,19 @@
       <c r="C40" s="106">
         <v>43750</v>
       </c>
-      <c r="D40" t="s" s="103">
-        <v>320</v>
+      <c r="D40" t="s" s="111">
+        <v>318</v>
       </c>
       <c r="E40" s="96">
         <v>1</v>
       </c>
       <c r="F40" s="97">
-        <f>220</f>
-        <v>220</v>
+        <f>1440</f>
+        <v>1440</v>
       </c>
       <c r="G40" s="98">
-        <f>F40*E40</f>
-        <v>220</v>
+        <f>E40*F40</f>
+        <v>1440</v>
       </c>
       <c r="H40" t="s" s="93">
         <v>297</v>
@@ -12302,17 +12313,17 @@
         <v>43750</v>
       </c>
       <c r="D41" t="s" s="108">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E41" s="105">
         <v>1</v>
       </c>
       <c r="F41" s="101">
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="G41" s="101">
         <f>E41*F41</f>
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="H41" t="s" s="109">
         <v>297</v>
@@ -12325,17 +12336,18 @@
         <v>43750</v>
       </c>
       <c r="D42" t="s" s="103">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E42" s="96">
         <v>1</v>
       </c>
       <c r="F42" s="97">
-        <v>35</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="G42" s="98">
-        <f>E42*F42</f>
-        <v>35</v>
+        <f>F42*E42</f>
+        <v>220</v>
       </c>
       <c r="H42" t="s" s="93">
         <v>297</v>
@@ -12348,17 +12360,17 @@
         <v>43750</v>
       </c>
       <c r="D43" t="s" s="108">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E43" s="105">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F43" s="101">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="G43" s="101">
         <f>E43*F43</f>
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="H43" t="s" s="109">
         <v>297</v>
@@ -12367,44 +12379,44 @@
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="129"/>
-      <c r="C44" s="107">
+      <c r="C44" s="106">
         <v>43750</v>
       </c>
-      <c r="D44" t="s" s="108">
-        <v>344</v>
-      </c>
-      <c r="E44" s="105">
+      <c r="D44" t="s" s="103">
+        <v>322</v>
+      </c>
+      <c r="E44" s="96">
         <v>1</v>
       </c>
-      <c r="F44" s="101">
-        <v>3800</v>
-      </c>
-      <c r="G44" s="101">
+      <c r="F44" s="97">
+        <v>35</v>
+      </c>
+      <c r="G44" s="98">
         <f>E44*F44</f>
-        <v>3800</v>
-      </c>
-      <c r="H44" t="s" s="109">
+        <v>35</v>
+      </c>
+      <c r="H44" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="71"/>
       <c r="B45" s="129"/>
-      <c r="C45" s="106">
+      <c r="C45" s="107">
         <v>43750</v>
       </c>
-      <c r="D45" t="s" s="103">
-        <v>345</v>
-      </c>
-      <c r="E45" s="112">
-        <v>1</v>
-      </c>
-      <c r="F45" s="113">
-        <v>950</v>
-      </c>
-      <c r="G45" s="113">
+      <c r="D45" t="s" s="108">
+        <v>323</v>
+      </c>
+      <c r="E45" s="105">
+        <v>22</v>
+      </c>
+      <c r="F45" s="101">
+        <v>25</v>
+      </c>
+      <c r="G45" s="101">
         <f>E45*F45</f>
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="H45" t="s" s="109">
         <v>297</v>
@@ -12413,47 +12425,47 @@
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="71"/>
       <c r="B46" s="129"/>
-      <c r="C46" s="106">
+      <c r="C46" s="107">
         <v>43750</v>
       </c>
-      <c r="D46" t="s" s="103">
-        <v>326</v>
-      </c>
-      <c r="E46" s="96">
-        <v>22</v>
-      </c>
-      <c r="F46" s="97">
-        <v>30</v>
-      </c>
-      <c r="G46" s="98">
+      <c r="D46" t="s" s="108">
+        <v>347</v>
+      </c>
+      <c r="E46" s="105">
+        <v>1</v>
+      </c>
+      <c r="F46" s="101">
+        <v>3800</v>
+      </c>
+      <c r="G46" s="101">
         <f>E46*F46</f>
-        <v>660</v>
-      </c>
-      <c r="H46" t="s" s="93">
+        <v>3800</v>
+      </c>
+      <c r="H46" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="71"/>
       <c r="B47" s="129"/>
-      <c r="C47" s="107">
+      <c r="C47" s="106">
         <v>43750</v>
       </c>
-      <c r="D47" t="s" s="108">
-        <v>327</v>
-      </c>
-      <c r="E47" s="105">
-        <v>2</v>
-      </c>
-      <c r="F47" s="101">
-        <v>220</v>
-      </c>
-      <c r="G47" s="101">
+      <c r="D47" t="s" s="103">
+        <v>348</v>
+      </c>
+      <c r="E47" s="112">
+        <v>1</v>
+      </c>
+      <c r="F47" s="113">
+        <v>950</v>
+      </c>
+      <c r="G47" s="113">
         <f>E47*F47</f>
-        <v>440</v>
+        <v>950</v>
       </c>
       <c r="H47" t="s" s="109">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
@@ -12463,39 +12475,40 @@
         <v>43750</v>
       </c>
       <c r="D48" t="s" s="103">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E48" s="96">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F48" s="97">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G48" s="98">
-        <v>0</v>
+        <f>E48*F48</f>
+        <v>660</v>
       </c>
       <c r="H48" t="s" s="93">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="71"/>
       <c r="B49" s="129"/>
-      <c r="C49" s="132">
-        <v>43751</v>
-      </c>
-      <c r="D49" t="s" s="133">
-        <v>329</v>
-      </c>
-      <c r="E49" s="134">
-        <v>1</v>
-      </c>
-      <c r="F49" s="135">
-        <v>345</v>
-      </c>
-      <c r="G49" s="135">
+      <c r="C49" s="107">
+        <v>43750</v>
+      </c>
+      <c r="D49" t="s" s="108">
+        <v>349</v>
+      </c>
+      <c r="E49" s="105">
+        <v>2</v>
+      </c>
+      <c r="F49" s="101">
+        <v>270</v>
+      </c>
+      <c r="G49" s="101">
         <f>E49*F49</f>
-        <v>345</v>
+        <v>540</v>
       </c>
       <c r="H49" t="s" s="109">
         <v>293</v>
@@ -12503,92 +12516,113 @@
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="71"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="136"/>
-      <c r="D50" t="s" s="137">
-        <v>346</v>
-      </c>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="139">
+      <c r="B50" s="129"/>
+      <c r="C50" s="106">
+        <v>43750</v>
+      </c>
+      <c r="D50" t="s" s="103">
+        <v>328</v>
+      </c>
+      <c r="E50" s="96">
         <v>0</v>
       </c>
-      <c r="H50" s="140"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
+      <c r="F50" s="97">
+        <v>45</v>
+      </c>
+      <c r="G50" s="98">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s" s="93">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="71"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="73"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="132">
+        <v>43751</v>
+      </c>
+      <c r="D51" t="s" s="133">
+        <v>329</v>
+      </c>
+      <c r="E51" s="134">
+        <v>1</v>
+      </c>
+      <c r="F51" s="135">
+        <v>345</v>
+      </c>
+      <c r="G51" s="135">
+        <f>E51*F51</f>
+        <v>345</v>
+      </c>
+      <c r="H51" t="s" s="109">
+        <v>293</v>
+      </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="71"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="73"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
+      <c r="B52" s="126"/>
+      <c r="C52" s="136"/>
+      <c r="D52" t="s" s="137">
+        <v>350</v>
+      </c>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="139">
+        <v>0</v>
+      </c>
+      <c r="H52" s="140"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="71"/>
       <c r="B53" s="72"/>
-      <c r="C53" s="126"/>
-      <c r="D53" t="s" s="143">
-        <v>347</v>
-      </c>
-      <c r="E53" s="77"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="142"/>
       <c r="H53" s="73"/>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="71"/>
       <c r="B54" s="72"/>
-      <c r="C54" s="126"/>
-      <c r="D54" t="s" s="144">
-        <v>348</v>
-      </c>
-      <c r="E54" s="77"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="72"/>
       <c r="G54" s="72"/>
       <c r="H54" s="73"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="71"/>
       <c r="B55" s="72"/>
       <c r="C55" s="126"/>
-      <c r="D55" t="s" s="145">
-        <v>349</v>
+      <c r="D55" t="s" s="143">
+        <v>351</v>
       </c>
       <c r="E55" s="77"/>
       <c r="F55" s="72"/>
       <c r="G55" s="72"/>
       <c r="H55" s="73"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="71"/>
       <c r="B56" s="72"/>
       <c r="C56" s="126"/>
-      <c r="D56" t="s" s="145">
-        <v>350</v>
+      <c r="D56" t="s" s="144">
+        <v>352</v>
       </c>
       <c r="E56" s="77"/>
       <c r="F56" s="72"/>
       <c r="G56" s="72"/>
       <c r="H56" s="73"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="71"/>
       <c r="B57" s="72"/>
       <c r="C57" s="126"/>
-      <c r="D57" t="s" s="146">
-        <v>351</v>
+      <c r="D57" t="s" s="145">
+        <v>353</v>
       </c>
       <c r="E57" s="77"/>
       <c r="F57" s="72"/>
@@ -12598,19 +12632,23 @@
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="71"/>
       <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="72"/>
+      <c r="C58" s="126"/>
+      <c r="D58" t="s" s="145">
+        <v>354</v>
+      </c>
+      <c r="E58" s="77"/>
       <c r="F58" s="72"/>
       <c r="G58" s="72"/>
       <c r="H58" s="73"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="71"/>
       <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
+      <c r="C59" s="126"/>
+      <c r="D59" t="s" s="146">
+        <v>355</v>
+      </c>
+      <c r="E59" s="77"/>
       <c r="F59" s="72"/>
       <c r="G59" s="72"/>
       <c r="H59" s="73"/>
@@ -12619,7 +12657,7 @@
       <c r="A60" s="71"/>
       <c r="B60" s="72"/>
       <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="72"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
@@ -12648,32 +12686,28 @@
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="71"/>
       <c r="B63" s="72"/>
-      <c r="C63" t="s" s="119">
-        <v>332</v>
-      </c>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="120"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="73"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="71"/>
       <c r="B64" s="72"/>
-      <c r="C64" t="s" s="119">
-        <v>333</v>
-      </c>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="73"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="71"/>
       <c r="B65" s="72"/>
       <c r="C65" t="s" s="119">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D65" s="120"/>
       <c r="E65" s="120"/>
@@ -12682,14 +12716,38 @@
       <c r="H65" s="73"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="122"/>
-      <c r="B66" s="147"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="124"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" t="s" s="119">
+        <v>333</v>
+      </c>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="73"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="A67" s="71"/>
+      <c r="B67" s="72"/>
+      <c r="C67" t="s" s="119">
+        <v>334</v>
+      </c>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="73"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="A68" s="122"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12722,13 +12780,13 @@
   <sheetData>
     <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="149">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s" s="149">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C1" t="s" s="149">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -12741,7 +12799,7 @@
         <v>2586.15</v>
       </c>
       <c r="C2" t="s" s="153">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -12754,7 +12812,7 @@
         <v>4417.5</v>
       </c>
       <c r="C3" t="s" s="157">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
@@ -12767,7 +12825,7 @@
         <v>4417.5</v>
       </c>
       <c r="C4" t="s" s="157">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="158"/>
@@ -12777,10 +12835,10 @@
         <v>43723</v>
       </c>
       <c r="B5" s="156">
-        <v>6279.55</v>
+        <v>6931.55</v>
       </c>
       <c r="C5" t="s" s="157">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -12790,10 +12848,10 @@
         <v>43741</v>
       </c>
       <c r="B6" s="156">
-        <v>6279.55</v>
+        <v>6931.55</v>
       </c>
       <c r="C6" t="s" s="157">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>first</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dinner at Mandala Beach Bar </t>
+  </si>
+  <si>
+    <t>Dinner at Abiss restaurant</t>
   </si>
   <si>
     <t>Bus at disposal for a full day in Valencia. 10 hours.</t>
@@ -11491,7 +11494,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -11849,159 +11852,159 @@
     <row r="21" ht="13.7" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D21" t="s" s="103">
+      <c r="C21" s="130">
+        <v>43748</v>
+      </c>
+      <c r="D21" t="s" s="104">
         <v>343</v>
       </c>
-      <c r="E21" s="96">
-        <v>1</v>
-      </c>
-      <c r="F21" s="97">
-        <v>655</v>
-      </c>
-      <c r="G21" s="98">
+      <c r="E21" s="105">
+        <v>0</v>
+      </c>
+      <c r="F21" s="101">
+        <v>87</v>
+      </c>
+      <c r="G21" s="102">
         <f>E21*F21</f>
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s" s="93">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" ht="13.7" customHeight="1">
       <c r="A22" s="71"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="107">
+      <c r="B22" s="72"/>
+      <c r="C22" s="131">
         <v>43749</v>
       </c>
-      <c r="D22" t="s" s="104">
-        <v>300</v>
-      </c>
-      <c r="E22" s="105">
+      <c r="D22" t="s" s="103">
+        <v>344</v>
+      </c>
+      <c r="E22" s="96">
         <v>1</v>
       </c>
-      <c r="F22" s="101">
-        <v>340</v>
-      </c>
-      <c r="G22" s="102">
+      <c r="F22" s="97">
+        <v>655</v>
+      </c>
+      <c r="G22" s="98">
         <f>E22*F22</f>
-        <v>340</v>
+        <v>655</v>
       </c>
       <c r="H22" t="s" s="93">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" ht="13.7" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="131">
+      <c r="B23" s="129"/>
+      <c r="C23" s="107">
         <v>43749</v>
       </c>
-      <c r="D23" t="s" s="103">
-        <v>301</v>
-      </c>
-      <c r="E23" s="96">
-        <v>10</v>
-      </c>
-      <c r="F23" s="97">
-        <v>8.5</v>
-      </c>
-      <c r="G23" s="98">
-        <f>F23*E23</f>
-        <v>85</v>
+      <c r="D23" t="s" s="104">
+        <v>300</v>
+      </c>
+      <c r="E23" s="105">
+        <v>1</v>
+      </c>
+      <c r="F23" s="101">
+        <v>340</v>
+      </c>
+      <c r="G23" s="102">
+        <f>E23*F23</f>
+        <v>340</v>
       </c>
       <c r="H23" t="s" s="93">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" ht="13.7" customHeight="1">
       <c r="A24" s="71"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="107">
+      <c r="B24" s="72"/>
+      <c r="C24" s="131">
         <v>43749</v>
       </c>
-      <c r="D24" t="s" s="104">
+      <c r="D24" t="s" s="103">
+        <v>301</v>
+      </c>
+      <c r="E24" s="96">
+        <v>10</v>
+      </c>
+      <c r="F24" s="97">
+        <v>8.5</v>
+      </c>
+      <c r="G24" s="98">
+        <f>F24*E24</f>
+        <v>85</v>
+      </c>
+      <c r="H24" t="s" s="93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" ht="13.7" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D25" t="s" s="104">
         <v>303</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E25" s="105">
         <v>10</v>
       </c>
-      <c r="F24" s="101">
+      <c r="F25" s="101">
         <v>5</v>
       </c>
-      <c r="G24" s="102">
-        <f>E24*F24</f>
+      <c r="G25" s="102">
+        <f>E25*F25</f>
         <v>50</v>
       </c>
-      <c r="H24" t="s" s="93">
+      <c r="H25" t="s" s="93">
         <v>297</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D25" t="s" s="103">
-        <v>304</v>
-      </c>
-      <c r="E25" s="96">
-        <v>10</v>
-      </c>
-      <c r="F25" s="97">
-        <v>49</v>
-      </c>
-      <c r="G25" s="98">
-        <f>E25*F25</f>
-        <v>490</v>
-      </c>
-      <c r="H25" t="s" s="93">
-        <v>302</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="71"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="107">
+      <c r="B26" s="72"/>
+      <c r="C26" s="131">
         <v>43749</v>
       </c>
-      <c r="D26" t="s" s="104">
+      <c r="D26" t="s" s="103">
+        <v>304</v>
+      </c>
+      <c r="E26" s="96">
+        <v>10</v>
+      </c>
+      <c r="F26" s="97">
+        <v>49</v>
+      </c>
+      <c r="G26" s="98">
+        <f>E26*F26</f>
+        <v>490</v>
+      </c>
+      <c r="H26" t="s" s="93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D27" t="s" s="104">
         <v>305</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E27" s="105">
         <v>10</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F27" s="101">
         <v>16</v>
       </c>
-      <c r="G26" s="102">
-        <f>E26*F26</f>
+      <c r="G27" s="102">
+        <f>E27*F27</f>
         <v>160</v>
-      </c>
-      <c r="H26" t="s" s="93">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D27" t="s" s="103">
-        <v>306</v>
-      </c>
-      <c r="E27" s="96">
-        <v>1</v>
-      </c>
-      <c r="F27" s="97">
-        <v>78</v>
-      </c>
-      <c r="G27" s="98">
-        <f>E27*F27</f>
-        <v>78</v>
       </c>
       <c r="H27" t="s" s="93">
         <v>297</v>
@@ -12009,207 +12012,207 @@
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="107">
+      <c r="B28" s="72"/>
+      <c r="C28" s="131">
         <v>43749</v>
       </c>
-      <c r="D28" t="s" s="108">
+      <c r="D28" t="s" s="103">
+        <v>306</v>
+      </c>
+      <c r="E28" s="96">
+        <v>1</v>
+      </c>
+      <c r="F28" s="97">
+        <v>78</v>
+      </c>
+      <c r="G28" s="98">
+        <f>E28*F28</f>
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="93">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="107">
+        <v>43749</v>
+      </c>
+      <c r="D29" t="s" s="108">
         <v>307</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E29" s="105">
         <v>1</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F29" s="105">
         <v>28</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G29" s="105">
         <v>0</v>
       </c>
-      <c r="H28" t="s" s="109">
+      <c r="H29" t="s" s="109">
         <v>297</v>
       </c>
     </row>
-    <row r="29" ht="24.6" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="131">
+    <row r="30" ht="24.6" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="131">
         <v>43749</v>
       </c>
-      <c r="D29" t="s" s="103">
+      <c r="D30" t="s" s="103">
         <v>308</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E30" s="96">
         <v>10</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F30" s="97">
         <f>14</f>
         <v>14</v>
       </c>
-      <c r="G29" s="98">
-        <f>E29*F29</f>
+      <c r="G30" s="98">
+        <f>E30*F30</f>
         <v>140</v>
       </c>
-      <c r="H29" t="s" s="93">
+      <c r="H30" t="s" s="93">
         <v>302</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="107">
-        <v>43749</v>
-      </c>
-      <c r="D30" t="s" s="110">
-        <v>344</v>
-      </c>
-      <c r="E30" s="105">
-        <v>1</v>
-      </c>
-      <c r="F30" s="105">
-        <v>560</v>
-      </c>
-      <c r="G30" s="105">
-        <f>E30*F30</f>
-        <v>560</v>
-      </c>
-      <c r="H30" t="s" s="109">
-        <v>293</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="131">
+      <c r="B31" s="129"/>
+      <c r="C31" s="107">
         <v>43749</v>
       </c>
-      <c r="D31" t="s" s="95">
-        <v>310</v>
-      </c>
-      <c r="E31" s="96">
+      <c r="D31" t="s" s="110">
+        <v>345</v>
+      </c>
+      <c r="E31" s="105">
         <v>1</v>
       </c>
-      <c r="F31" s="97">
-        <v>4000</v>
-      </c>
-      <c r="G31" s="98">
+      <c r="F31" s="105">
+        <v>560</v>
+      </c>
+      <c r="G31" s="105">
         <f>E31*F31</f>
-        <v>4000</v>
-      </c>
-      <c r="H31" t="s" s="93">
-        <v>302</v>
+        <v>560</v>
+      </c>
+      <c r="H31" t="s" s="109">
+        <v>293</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="107">
+      <c r="B32" s="72"/>
+      <c r="C32" s="131">
         <v>43749</v>
       </c>
-      <c r="D32" t="s" s="108">
-        <v>311</v>
-      </c>
-      <c r="E32" s="105">
-        <v>22</v>
-      </c>
-      <c r="F32" s="105">
-        <v>73.5</v>
-      </c>
-      <c r="G32" s="105">
+      <c r="D32" t="s" s="95">
+        <v>310</v>
+      </c>
+      <c r="E32" s="96">
+        <v>1</v>
+      </c>
+      <c r="F32" s="97">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="98">
         <f>E32*F32</f>
-        <v>1617</v>
-      </c>
-      <c r="H32" t="s" s="109">
+        <v>4000</v>
+      </c>
+      <c r="H32" t="s" s="93">
         <v>302</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="131">
+      <c r="B33" s="129"/>
+      <c r="C33" s="107">
         <v>43749</v>
       </c>
-      <c r="D33" t="s" s="111">
-        <v>345</v>
-      </c>
-      <c r="E33" s="96">
-        <v>0</v>
-      </c>
-      <c r="F33" s="97">
-        <v>0</v>
-      </c>
-      <c r="G33" s="98">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s" s="93">
+      <c r="D33" t="s" s="108">
+        <v>311</v>
+      </c>
+      <c r="E33" s="105">
+        <v>22</v>
+      </c>
+      <c r="F33" s="105">
+        <v>73.5</v>
+      </c>
+      <c r="G33" s="105">
+        <f>E33*F33</f>
+        <v>1617</v>
+      </c>
+      <c r="H33" t="s" s="109">
         <v>302</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="71"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="107">
-        <v>43750</v>
-      </c>
-      <c r="D34" t="s" s="108">
-        <v>312</v>
-      </c>
-      <c r="E34" s="105">
-        <v>1</v>
-      </c>
-      <c r="F34" s="105">
-        <v>358.75</v>
-      </c>
-      <c r="G34" s="105">
-        <f>E34*F34</f>
-        <v>358.75</v>
-      </c>
-      <c r="H34" t="s" s="109">
-        <v>297</v>
+      <c r="B34" s="72"/>
+      <c r="C34" s="131">
+        <v>43749</v>
+      </c>
+      <c r="D34" t="s" s="111">
+        <v>346</v>
+      </c>
+      <c r="E34" s="96">
+        <v>0</v>
+      </c>
+      <c r="F34" s="97">
+        <v>0</v>
+      </c>
+      <c r="G34" s="98">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s" s="93">
+        <v>302</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="129"/>
-      <c r="C35" s="106">
+      <c r="C35" s="107">
         <v>43750</v>
       </c>
-      <c r="D35" t="s" s="95">
-        <v>313</v>
-      </c>
-      <c r="E35" s="96">
-        <v>0</v>
-      </c>
-      <c r="F35" s="97">
-        <v>70</v>
-      </c>
-      <c r="G35" s="98">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s" s="93">
-        <v>293</v>
+      <c r="D35" t="s" s="108">
+        <v>312</v>
+      </c>
+      <c r="E35" s="105">
+        <v>1</v>
+      </c>
+      <c r="F35" s="105">
+        <v>358.75</v>
+      </c>
+      <c r="G35" s="105">
+        <f>E35*F35</f>
+        <v>358.75</v>
+      </c>
+      <c r="H35" t="s" s="109">
+        <v>297</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="129"/>
-      <c r="C36" s="107">
+      <c r="C36" s="106">
         <v>43750</v>
       </c>
-      <c r="D36" t="s" s="108">
-        <v>314</v>
-      </c>
-      <c r="E36" s="105">
-        <v>10</v>
-      </c>
-      <c r="F36" s="105">
-        <v>15</v>
-      </c>
-      <c r="G36" s="105">
-        <f>E36*F36</f>
-        <v>150</v>
-      </c>
-      <c r="H36" t="s" s="109">
-        <v>297</v>
+      <c r="D36" t="s" s="95">
+        <v>313</v>
+      </c>
+      <c r="E36" s="96">
+        <v>0</v>
+      </c>
+      <c r="F36" s="97">
+        <v>70</v>
+      </c>
+      <c r="G36" s="98">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s" s="93">
+        <v>293</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
@@ -12219,206 +12222,206 @@
         <v>43750</v>
       </c>
       <c r="D37" t="s" s="108">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E37" s="105">
         <v>10</v>
       </c>
       <c r="F37" s="105">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="G37" s="105">
         <f>E37*F37</f>
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s" s="109">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="129"/>
-      <c r="C38" s="106">
+      <c r="C38" s="107">
         <v>43750</v>
       </c>
-      <c r="D38" t="s" s="103">
-        <v>316</v>
-      </c>
-      <c r="E38" s="96">
+      <c r="D38" t="s" s="108">
+        <v>315</v>
+      </c>
+      <c r="E38" s="105">
         <v>10</v>
       </c>
-      <c r="F38" s="97">
-        <v>51.25</v>
-      </c>
-      <c r="G38" s="98">
+      <c r="F38" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="G38" s="105">
         <f>E38*F38</f>
-        <v>512.5</v>
-      </c>
-      <c r="H38" t="s" s="93">
-        <v>297</v>
+        <v>35</v>
+      </c>
+      <c r="H38" t="s" s="109">
+        <v>347</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="129"/>
-      <c r="C39" s="107">
+      <c r="C39" s="106">
         <v>43750</v>
       </c>
-      <c r="D39" t="s" s="108">
-        <v>317</v>
-      </c>
-      <c r="E39" s="105">
-        <v>1</v>
-      </c>
-      <c r="F39" s="101">
-        <f>4125</f>
-        <v>4125</v>
-      </c>
-      <c r="G39" s="101">
+      <c r="D39" t="s" s="103">
+        <v>316</v>
+      </c>
+      <c r="E39" s="96">
+        <v>10</v>
+      </c>
+      <c r="F39" s="97">
+        <v>51.25</v>
+      </c>
+      <c r="G39" s="98">
         <f>E39*F39</f>
-        <v>4125</v>
-      </c>
-      <c r="H39" t="s" s="109">
+        <v>512.5</v>
+      </c>
+      <c r="H39" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="129"/>
-      <c r="C40" s="106">
+      <c r="C40" s="107">
         <v>43750</v>
       </c>
-      <c r="D40" t="s" s="111">
-        <v>318</v>
-      </c>
-      <c r="E40" s="96">
+      <c r="D40" t="s" s="108">
+        <v>317</v>
+      </c>
+      <c r="E40" s="105">
         <v>1</v>
       </c>
-      <c r="F40" s="97">
-        <f>1440</f>
-        <v>1440</v>
-      </c>
-      <c r="G40" s="98">
+      <c r="F40" s="101">
+        <f>4125</f>
+        <v>4125</v>
+      </c>
+      <c r="G40" s="101">
         <f>E40*F40</f>
-        <v>1440</v>
-      </c>
-      <c r="H40" t="s" s="93">
+        <v>4125</v>
+      </c>
+      <c r="H40" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="129"/>
-      <c r="C41" s="107">
+      <c r="C41" s="106">
         <v>43750</v>
       </c>
-      <c r="D41" t="s" s="108">
-        <v>319</v>
-      </c>
-      <c r="E41" s="105">
+      <c r="D41" t="s" s="111">
+        <v>318</v>
+      </c>
+      <c r="E41" s="96">
         <v>1</v>
       </c>
-      <c r="F41" s="101">
-        <v>650</v>
-      </c>
-      <c r="G41" s="101">
+      <c r="F41" s="97">
+        <f>1440</f>
+        <v>1440</v>
+      </c>
+      <c r="G41" s="98">
         <f>E41*F41</f>
-        <v>650</v>
-      </c>
-      <c r="H41" t="s" s="109">
+        <v>1440</v>
+      </c>
+      <c r="H41" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="129"/>
-      <c r="C42" s="106">
+      <c r="C42" s="107">
         <v>43750</v>
       </c>
-      <c r="D42" t="s" s="103">
-        <v>320</v>
-      </c>
-      <c r="E42" s="96">
+      <c r="D42" t="s" s="108">
+        <v>319</v>
+      </c>
+      <c r="E42" s="105">
         <v>1</v>
       </c>
-      <c r="F42" s="97">
-        <f>220</f>
-        <v>220</v>
-      </c>
-      <c r="G42" s="98">
-        <f>F42*E42</f>
-        <v>220</v>
-      </c>
-      <c r="H42" t="s" s="93">
+      <c r="F42" s="101">
+        <v>650</v>
+      </c>
+      <c r="G42" s="101">
+        <f>E42*F42</f>
+        <v>650</v>
+      </c>
+      <c r="H42" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="129"/>
-      <c r="C43" s="107">
+      <c r="C43" s="106">
         <v>43750</v>
       </c>
-      <c r="D43" t="s" s="108">
-        <v>321</v>
-      </c>
-      <c r="E43" s="105">
+      <c r="D43" t="s" s="103">
+        <v>320</v>
+      </c>
+      <c r="E43" s="96">
         <v>1</v>
       </c>
-      <c r="F43" s="101">
+      <c r="F43" s="97">
+        <f>220</f>
         <v>220</v>
       </c>
-      <c r="G43" s="101">
-        <f>E43*F43</f>
+      <c r="G43" s="98">
+        <f>F43*E43</f>
         <v>220</v>
       </c>
-      <c r="H43" t="s" s="109">
+      <c r="H43" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="129"/>
-      <c r="C44" s="106">
+      <c r="C44" s="107">
         <v>43750</v>
       </c>
-      <c r="D44" t="s" s="103">
-        <v>322</v>
-      </c>
-      <c r="E44" s="96">
+      <c r="D44" t="s" s="108">
+        <v>321</v>
+      </c>
+      <c r="E44" s="105">
         <v>1</v>
       </c>
-      <c r="F44" s="97">
-        <v>35</v>
-      </c>
-      <c r="G44" s="98">
+      <c r="F44" s="101">
+        <v>220</v>
+      </c>
+      <c r="G44" s="101">
         <f>E44*F44</f>
-        <v>35</v>
-      </c>
-      <c r="H44" t="s" s="93">
+        <v>220</v>
+      </c>
+      <c r="H44" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="71"/>
       <c r="B45" s="129"/>
-      <c r="C45" s="107">
+      <c r="C45" s="106">
         <v>43750</v>
       </c>
-      <c r="D45" t="s" s="108">
-        <v>323</v>
-      </c>
-      <c r="E45" s="105">
-        <v>22</v>
-      </c>
-      <c r="F45" s="101">
-        <v>25</v>
-      </c>
-      <c r="G45" s="101">
+      <c r="D45" t="s" s="103">
+        <v>322</v>
+      </c>
+      <c r="E45" s="96">
+        <v>1</v>
+      </c>
+      <c r="F45" s="97">
+        <v>35</v>
+      </c>
+      <c r="G45" s="98">
         <f>E45*F45</f>
-        <v>550</v>
-      </c>
-      <c r="H45" t="s" s="109">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s" s="93">
         <v>297</v>
       </c>
     </row>
@@ -12429,17 +12432,17 @@
         <v>43750</v>
       </c>
       <c r="D46" t="s" s="108">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="E46" s="105">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F46" s="101">
-        <v>3800</v>
+        <v>25</v>
       </c>
       <c r="G46" s="101">
         <f>E46*F46</f>
-        <v>3800</v>
+        <v>550</v>
       </c>
       <c r="H46" t="s" s="109">
         <v>297</v>
@@ -12448,21 +12451,21 @@
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="71"/>
       <c r="B47" s="129"/>
-      <c r="C47" s="106">
+      <c r="C47" s="107">
         <v>43750</v>
       </c>
-      <c r="D47" t="s" s="103">
+      <c r="D47" t="s" s="108">
         <v>348</v>
       </c>
-      <c r="E47" s="112">
+      <c r="E47" s="105">
         <v>1</v>
       </c>
-      <c r="F47" s="113">
-        <v>950</v>
-      </c>
-      <c r="G47" s="113">
+      <c r="F47" s="101">
+        <v>3800</v>
+      </c>
+      <c r="G47" s="101">
         <f>E47*F47</f>
-        <v>950</v>
+        <v>3800</v>
       </c>
       <c r="H47" t="s" s="109">
         <v>297</v>
@@ -12475,132 +12478,143 @@
         <v>43750</v>
       </c>
       <c r="D48" t="s" s="103">
-        <v>326</v>
-      </c>
-      <c r="E48" s="96">
-        <v>22</v>
-      </c>
-      <c r="F48" s="97">
-        <v>30</v>
-      </c>
-      <c r="G48" s="98">
+        <v>349</v>
+      </c>
+      <c r="E48" s="112">
+        <v>1</v>
+      </c>
+      <c r="F48" s="113">
+        <v>950</v>
+      </c>
+      <c r="G48" s="113">
         <f>E48*F48</f>
-        <v>660</v>
-      </c>
-      <c r="H48" t="s" s="93">
+        <v>950</v>
+      </c>
+      <c r="H48" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="71"/>
       <c r="B49" s="129"/>
-      <c r="C49" s="107">
+      <c r="C49" s="106">
         <v>43750</v>
       </c>
-      <c r="D49" t="s" s="108">
-        <v>349</v>
-      </c>
-      <c r="E49" s="105">
-        <v>2</v>
-      </c>
-      <c r="F49" s="101">
-        <v>270</v>
-      </c>
-      <c r="G49" s="101">
+      <c r="D49" t="s" s="103">
+        <v>326</v>
+      </c>
+      <c r="E49" s="96">
+        <v>22</v>
+      </c>
+      <c r="F49" s="97">
+        <v>30</v>
+      </c>
+      <c r="G49" s="98">
         <f>E49*F49</f>
-        <v>540</v>
-      </c>
-      <c r="H49" t="s" s="109">
-        <v>293</v>
+        <v>660</v>
+      </c>
+      <c r="H49" t="s" s="93">
+        <v>297</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="71"/>
       <c r="B50" s="129"/>
-      <c r="C50" s="106">
+      <c r="C50" s="107">
         <v>43750</v>
       </c>
-      <c r="D50" t="s" s="103">
-        <v>328</v>
-      </c>
-      <c r="E50" s="96">
-        <v>0</v>
-      </c>
-      <c r="F50" s="97">
-        <v>45</v>
-      </c>
-      <c r="G50" s="98">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s" s="93">
+      <c r="D50" t="s" s="108">
+        <v>350</v>
+      </c>
+      <c r="E50" s="105">
+        <v>2</v>
+      </c>
+      <c r="F50" s="101">
+        <v>270</v>
+      </c>
+      <c r="G50" s="101">
+        <f>E50*F50</f>
+        <v>540</v>
+      </c>
+      <c r="H50" t="s" s="109">
         <v>293</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="71"/>
       <c r="B51" s="129"/>
-      <c r="C51" s="132">
-        <v>43751</v>
-      </c>
-      <c r="D51" t="s" s="133">
-        <v>329</v>
-      </c>
-      <c r="E51" s="134">
-        <v>1</v>
-      </c>
-      <c r="F51" s="135">
-        <v>345</v>
-      </c>
-      <c r="G51" s="135">
-        <f>E51*F51</f>
-        <v>345</v>
-      </c>
-      <c r="H51" t="s" s="109">
+      <c r="C51" s="106">
+        <v>43750</v>
+      </c>
+      <c r="D51" t="s" s="103">
+        <v>328</v>
+      </c>
+      <c r="E51" s="96">
+        <v>0</v>
+      </c>
+      <c r="F51" s="97">
+        <v>45</v>
+      </c>
+      <c r="G51" s="98">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s" s="93">
         <v>293</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="71"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="136"/>
-      <c r="D52" t="s" s="137">
-        <v>350</v>
-      </c>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="139">
+      <c r="B52" s="129"/>
+      <c r="C52" s="132">
+        <v>43751</v>
+      </c>
+      <c r="D52" t="s" s="133">
+        <v>329</v>
+      </c>
+      <c r="E52" s="134">
+        <v>1</v>
+      </c>
+      <c r="F52" s="135">
+        <v>345</v>
+      </c>
+      <c r="G52" s="135">
+        <f>E52*F52</f>
+        <v>345</v>
+      </c>
+      <c r="H52" t="s" s="109">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="A53" s="71"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="136"/>
+      <c r="D53" t="s" s="137">
+        <v>351</v>
+      </c>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="139">
         <v>0</v>
       </c>
-      <c r="H52" s="140"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="73"/>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
+      <c r="H53" s="140"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="71"/>
       <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="142"/>
       <c r="H54" s="73"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="71"/>
       <c r="B55" s="72"/>
-      <c r="C55" s="126"/>
-      <c r="D55" t="s" s="143">
-        <v>351</v>
-      </c>
-      <c r="E55" s="77"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="72"/>
       <c r="G55" s="72"/>
       <c r="H55" s="73"/>
@@ -12609,7 +12623,7 @@
       <c r="A56" s="71"/>
       <c r="B56" s="72"/>
       <c r="C56" s="126"/>
-      <c r="D56" t="s" s="144">
+      <c r="D56" t="s" s="143">
         <v>352</v>
       </c>
       <c r="E56" s="77"/>
@@ -12617,11 +12631,11 @@
       <c r="G56" s="72"/>
       <c r="H56" s="73"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="71"/>
       <c r="B57" s="72"/>
       <c r="C57" s="126"/>
-      <c r="D57" t="s" s="145">
+      <c r="D57" t="s" s="144">
         <v>353</v>
       </c>
       <c r="E57" s="77"/>
@@ -12641,11 +12655,11 @@
       <c r="G58" s="72"/>
       <c r="H58" s="73"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="71"/>
       <c r="B59" s="72"/>
       <c r="C59" s="126"/>
-      <c r="D59" t="s" s="146">
+      <c r="D59" t="s" s="145">
         <v>355</v>
       </c>
       <c r="E59" s="77"/>
@@ -12653,12 +12667,14 @@
       <c r="G59" s="72"/>
       <c r="H59" s="73"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="71"/>
       <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="72"/>
+      <c r="C60" s="126"/>
+      <c r="D60" t="s" s="146">
+        <v>356</v>
+      </c>
+      <c r="E60" s="77"/>
       <c r="F60" s="72"/>
       <c r="G60" s="72"/>
       <c r="H60" s="73"/>
@@ -12667,7 +12683,7 @@
       <c r="A61" s="71"/>
       <c r="B61" s="72"/>
       <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
+      <c r="D61" s="82"/>
       <c r="E61" s="72"/>
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
@@ -12706,20 +12722,18 @@
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="71"/>
       <c r="B65" s="72"/>
-      <c r="C65" t="s" s="119">
-        <v>332</v>
-      </c>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="73"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="71"/>
       <c r="B66" s="72"/>
       <c r="C66" t="s" s="119">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D66" s="120"/>
       <c r="E66" s="120"/>
@@ -12731,7 +12745,7 @@
       <c r="A67" s="71"/>
       <c r="B67" s="72"/>
       <c r="C67" t="s" s="119">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D67" s="120"/>
       <c r="E67" s="120"/>
@@ -12740,14 +12754,26 @@
       <c r="H67" s="73"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="122"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="124"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="72"/>
+      <c r="C68" t="s" s="119">
+        <v>334</v>
+      </c>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="73"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
+      <c r="A69" s="122"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12780,13 +12806,13 @@
   <sheetData>
     <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="149">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="149">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C1" t="s" s="149">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -12799,7 +12825,7 @@
         <v>2586.15</v>
       </c>
       <c r="C2" t="s" s="153">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -12812,7 +12838,7 @@
         <v>4417.5</v>
       </c>
       <c r="C3" t="s" s="157">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
@@ -12825,7 +12851,7 @@
         <v>4417.5</v>
       </c>
       <c r="C4" t="s" s="157">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="158"/>
@@ -12838,7 +12864,7 @@
         <v>6931.55</v>
       </c>
       <c r="C5" t="s" s="157">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -12851,7 +12877,7 @@
         <v>6931.55</v>
       </c>
       <c r="C6" t="s" s="157">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t>first</t>
   </si>
@@ -1066,6 +1066,12 @@
   </si>
   <si>
     <t>Dinner at Abiss restaurant</t>
+  </si>
+  <si>
+    <t>Dinner at Hydra restaurant</t>
+  </si>
+  <si>
+    <t>Dinner at OroBianco</t>
   </si>
   <si>
     <t>Bus at disposal for a full day in Valencia. 10 hours.</t>
@@ -11494,7 +11500,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -11875,47 +11881,47 @@
     <row r="22" ht="13.7" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="131">
-        <v>43749</v>
-      </c>
-      <c r="D22" t="s" s="103">
+      <c r="C22" s="130">
+        <v>43748</v>
+      </c>
+      <c r="D22" t="s" s="104">
         <v>344</v>
       </c>
-      <c r="E22" s="96">
-        <v>1</v>
-      </c>
-      <c r="F22" s="97">
-        <v>655</v>
-      </c>
-      <c r="G22" s="98">
+      <c r="E22" s="105">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <v>45</v>
+      </c>
+      <c r="G22" s="102">
         <f>E22*F22</f>
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s" s="93">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" ht="13.7" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="107">
-        <v>43749</v>
+      <c r="B23" s="72"/>
+      <c r="C23" s="130">
+        <v>43748</v>
       </c>
       <c r="D23" t="s" s="104">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="E23" s="105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="101">
-        <v>340</v>
+        <v>162</v>
       </c>
       <c r="G23" s="102">
         <f>E23*F23</f>
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s" s="93">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" ht="13.7" customHeight="1">
@@ -11925,20 +11931,20 @@
         <v>43749</v>
       </c>
       <c r="D24" t="s" s="103">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="E24" s="96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F24" s="97">
-        <v>8.5</v>
+        <v>655</v>
       </c>
       <c r="G24" s="98">
-        <f>F24*E24</f>
-        <v>85</v>
+        <f>E24*F24</f>
+        <v>655</v>
       </c>
       <c r="H24" t="s" s="93">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" ht="13.7" customHeight="1">
@@ -11948,135 +11954,135 @@
         <v>43749</v>
       </c>
       <c r="D25" t="s" s="104">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E25" s="105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F25" s="101">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="G25" s="102">
         <f>E25*F25</f>
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="H25" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" ht="13.7" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="131">
         <v>43749</v>
       </c>
       <c r="D26" t="s" s="103">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E26" s="96">
         <v>10</v>
       </c>
       <c r="F26" s="97">
-        <v>49</v>
+        <v>8.5</v>
       </c>
       <c r="G26" s="98">
-        <f>E26*F26</f>
-        <v>490</v>
+        <f>F26*E26</f>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="93">
         <v>302</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
+    <row r="27" ht="13.7" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="129"/>
       <c r="C27" s="107">
         <v>43749</v>
       </c>
       <c r="D27" t="s" s="104">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E27" s="105">
         <v>10</v>
       </c>
       <c r="F27" s="101">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G27" s="102">
         <f>E27*F27</f>
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" ht="25.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
       <c r="C28" s="131">
         <v>43749</v>
       </c>
       <c r="D28" t="s" s="103">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E28" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" s="97">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G28" s="98">
         <f>E28*F28</f>
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="H28" t="s" s="93">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="129"/>
       <c r="C29" s="107">
         <v>43749</v>
       </c>
-      <c r="D29" t="s" s="108">
-        <v>307</v>
+      <c r="D29" t="s" s="104">
+        <v>305</v>
       </c>
       <c r="E29" s="105">
-        <v>1</v>
-      </c>
-      <c r="F29" s="105">
-        <v>28</v>
-      </c>
-      <c r="G29" s="105">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s" s="109">
+        <v>10</v>
+      </c>
+      <c r="F29" s="101">
+        <v>16</v>
+      </c>
+      <c r="G29" s="102">
+        <f>E29*F29</f>
+        <v>160</v>
+      </c>
+      <c r="H29" t="s" s="93">
         <v>297</v>
       </c>
     </row>
-    <row r="30" ht="24.6" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
       <c r="C30" s="131">
         <v>43749</v>
       </c>
       <c r="D30" t="s" s="103">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E30" s="96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="97">
-        <f>14</f>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="G30" s="98">
         <f>E30*F30</f>
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="93">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
@@ -12085,41 +12091,41 @@
       <c r="C31" s="107">
         <v>43749</v>
       </c>
-      <c r="D31" t="s" s="110">
-        <v>345</v>
+      <c r="D31" t="s" s="108">
+        <v>307</v>
       </c>
       <c r="E31" s="105">
         <v>1</v>
       </c>
       <c r="F31" s="105">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="G31" s="105">
-        <f>E31*F31</f>
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s" s="109">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" ht="24.6" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
       <c r="C32" s="131">
         <v>43749</v>
       </c>
-      <c r="D32" t="s" s="95">
-        <v>310</v>
+      <c r="D32" t="s" s="103">
+        <v>308</v>
       </c>
       <c r="E32" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" s="97">
-        <v>4000</v>
+        <f>14</f>
+        <v>14</v>
       </c>
       <c r="G32" s="98">
         <f>E32*F32</f>
-        <v>4000</v>
+        <v>140</v>
       </c>
       <c r="H32" t="s" s="93">
         <v>302</v>
@@ -12131,21 +12137,21 @@
       <c r="C33" s="107">
         <v>43749</v>
       </c>
-      <c r="D33" t="s" s="108">
-        <v>311</v>
+      <c r="D33" t="s" s="110">
+        <v>347</v>
       </c>
       <c r="E33" s="105">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>73.5</v>
+        <v>560</v>
       </c>
       <c r="G33" s="105">
         <f>E33*F33</f>
-        <v>1617</v>
+        <v>560</v>
       </c>
       <c r="H33" t="s" s="109">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -12154,17 +12160,18 @@
       <c r="C34" s="131">
         <v>43749</v>
       </c>
-      <c r="D34" t="s" s="111">
-        <v>346</v>
+      <c r="D34" t="s" s="95">
+        <v>310</v>
       </c>
       <c r="E34" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="97">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="98">
-        <v>0</v>
+        <f>E34*F34</f>
+        <v>4000</v>
       </c>
       <c r="H34" t="s" s="93">
         <v>302</v>
@@ -12174,45 +12181,45 @@
       <c r="A35" s="71"/>
       <c r="B35" s="129"/>
       <c r="C35" s="107">
-        <v>43750</v>
+        <v>43749</v>
       </c>
       <c r="D35" t="s" s="108">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E35" s="105">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F35" s="105">
-        <v>358.75</v>
+        <v>73.5</v>
       </c>
       <c r="G35" s="105">
         <f>E35*F35</f>
-        <v>358.75</v>
+        <v>1617</v>
       </c>
       <c r="H35" t="s" s="109">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="71"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="106">
-        <v>43750</v>
-      </c>
-      <c r="D36" t="s" s="95">
-        <v>313</v>
+      <c r="B36" s="72"/>
+      <c r="C36" s="131">
+        <v>43749</v>
+      </c>
+      <c r="D36" t="s" s="111">
+        <v>348</v>
       </c>
       <c r="E36" s="96">
         <v>0</v>
       </c>
       <c r="F36" s="97">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G36" s="98">
         <v>0</v>
       </c>
       <c r="H36" t="s" s="93">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
@@ -12222,17 +12229,17 @@
         <v>43750</v>
       </c>
       <c r="D37" t="s" s="108">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E37" s="105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F37" s="105">
-        <v>15</v>
+        <v>358.75</v>
       </c>
       <c r="G37" s="105">
         <f>E37*F37</f>
-        <v>150</v>
+        <v>358.75</v>
       </c>
       <c r="H37" t="s" s="109">
         <v>297</v>
@@ -12241,46 +12248,45 @@
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="129"/>
-      <c r="C38" s="107">
+      <c r="C38" s="106">
         <v>43750</v>
       </c>
-      <c r="D38" t="s" s="108">
-        <v>315</v>
-      </c>
-      <c r="E38" s="105">
-        <v>10</v>
-      </c>
-      <c r="F38" s="105">
-        <v>3.5</v>
-      </c>
-      <c r="G38" s="105">
-        <f>E38*F38</f>
-        <v>35</v>
-      </c>
-      <c r="H38" t="s" s="109">
-        <v>347</v>
+      <c r="D38" t="s" s="95">
+        <v>313</v>
+      </c>
+      <c r="E38" s="96">
+        <v>0</v>
+      </c>
+      <c r="F38" s="97">
+        <v>70</v>
+      </c>
+      <c r="G38" s="98">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s" s="93">
+        <v>293</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="129"/>
-      <c r="C39" s="106">
+      <c r="C39" s="107">
         <v>43750</v>
       </c>
-      <c r="D39" t="s" s="103">
-        <v>316</v>
-      </c>
-      <c r="E39" s="96">
+      <c r="D39" t="s" s="108">
+        <v>314</v>
+      </c>
+      <c r="E39" s="105">
         <v>10</v>
       </c>
-      <c r="F39" s="97">
-        <v>51.25</v>
-      </c>
-      <c r="G39" s="98">
+      <c r="F39" s="105">
+        <v>15</v>
+      </c>
+      <c r="G39" s="105">
         <f>E39*F39</f>
-        <v>512.5</v>
-      </c>
-      <c r="H39" t="s" s="93">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s" s="109">
         <v>297</v>
       </c>
     </row>
@@ -12291,21 +12297,20 @@
         <v>43750</v>
       </c>
       <c r="D40" t="s" s="108">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E40" s="105">
-        <v>1</v>
-      </c>
-      <c r="F40" s="101">
-        <f>4125</f>
-        <v>4125</v>
-      </c>
-      <c r="G40" s="101">
+        <v>10</v>
+      </c>
+      <c r="F40" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="G40" s="105">
         <f>E40*F40</f>
-        <v>4125</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s" s="109">
-        <v>297</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
@@ -12314,19 +12319,18 @@
       <c r="C41" s="106">
         <v>43750</v>
       </c>
-      <c r="D41" t="s" s="111">
-        <v>318</v>
+      <c r="D41" t="s" s="103">
+        <v>316</v>
       </c>
       <c r="E41" s="96">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" s="97">
-        <f>1440</f>
-        <v>1440</v>
+        <v>51.25</v>
       </c>
       <c r="G41" s="98">
         <f>E41*F41</f>
-        <v>1440</v>
+        <v>512.5</v>
       </c>
       <c r="H41" t="s" s="93">
         <v>297</v>
@@ -12339,17 +12343,18 @@
         <v>43750</v>
       </c>
       <c r="D42" t="s" s="108">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E42" s="105">
         <v>1</v>
       </c>
       <c r="F42" s="101">
-        <v>650</v>
+        <f>4125</f>
+        <v>4125</v>
       </c>
       <c r="G42" s="101">
         <f>E42*F42</f>
-        <v>650</v>
+        <v>4125</v>
       </c>
       <c r="H42" t="s" s="109">
         <v>297</v>
@@ -12361,19 +12366,19 @@
       <c r="C43" s="106">
         <v>43750</v>
       </c>
-      <c r="D43" t="s" s="103">
-        <v>320</v>
+      <c r="D43" t="s" s="111">
+        <v>318</v>
       </c>
       <c r="E43" s="96">
         <v>1</v>
       </c>
       <c r="F43" s="97">
-        <f>220</f>
-        <v>220</v>
+        <f>1440</f>
+        <v>1440</v>
       </c>
       <c r="G43" s="98">
-        <f>F43*E43</f>
-        <v>220</v>
+        <f>E43*F43</f>
+        <v>1440</v>
       </c>
       <c r="H43" t="s" s="93">
         <v>297</v>
@@ -12386,17 +12391,17 @@
         <v>43750</v>
       </c>
       <c r="D44" t="s" s="108">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E44" s="105">
         <v>1</v>
       </c>
       <c r="F44" s="101">
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="G44" s="101">
         <f>E44*F44</f>
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="H44" t="s" s="109">
         <v>297</v>
@@ -12409,17 +12414,18 @@
         <v>43750</v>
       </c>
       <c r="D45" t="s" s="103">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E45" s="96">
         <v>1</v>
       </c>
       <c r="F45" s="97">
-        <v>35</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="G45" s="98">
-        <f>E45*F45</f>
-        <v>35</v>
+        <f>F45*E45</f>
+        <v>220</v>
       </c>
       <c r="H45" t="s" s="93">
         <v>297</v>
@@ -12432,17 +12438,17 @@
         <v>43750</v>
       </c>
       <c r="D46" t="s" s="108">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E46" s="105">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F46" s="101">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="G46" s="101">
         <f>E46*F46</f>
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="H46" t="s" s="109">
         <v>297</v>
@@ -12451,44 +12457,44 @@
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="71"/>
       <c r="B47" s="129"/>
-      <c r="C47" s="107">
+      <c r="C47" s="106">
         <v>43750</v>
       </c>
-      <c r="D47" t="s" s="108">
-        <v>348</v>
-      </c>
-      <c r="E47" s="105">
+      <c r="D47" t="s" s="103">
+        <v>322</v>
+      </c>
+      <c r="E47" s="96">
         <v>1</v>
       </c>
-      <c r="F47" s="101">
-        <v>3800</v>
-      </c>
-      <c r="G47" s="101">
+      <c r="F47" s="97">
+        <v>35</v>
+      </c>
+      <c r="G47" s="98">
         <f>E47*F47</f>
-        <v>3800</v>
-      </c>
-      <c r="H47" t="s" s="109">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s" s="93">
         <v>297</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="71"/>
       <c r="B48" s="129"/>
-      <c r="C48" s="106">
+      <c r="C48" s="107">
         <v>43750</v>
       </c>
-      <c r="D48" t="s" s="103">
-        <v>349</v>
-      </c>
-      <c r="E48" s="112">
-        <v>1</v>
-      </c>
-      <c r="F48" s="113">
-        <v>950</v>
-      </c>
-      <c r="G48" s="113">
+      <c r="D48" t="s" s="108">
+        <v>323</v>
+      </c>
+      <c r="E48" s="105">
+        <v>22</v>
+      </c>
+      <c r="F48" s="101">
+        <v>25</v>
+      </c>
+      <c r="G48" s="101">
         <f>E48*F48</f>
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="H48" t="s" s="109">
         <v>297</v>
@@ -12497,47 +12503,47 @@
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="71"/>
       <c r="B49" s="129"/>
-      <c r="C49" s="106">
+      <c r="C49" s="107">
         <v>43750</v>
       </c>
-      <c r="D49" t="s" s="103">
-        <v>326</v>
-      </c>
-      <c r="E49" s="96">
-        <v>22</v>
-      </c>
-      <c r="F49" s="97">
-        <v>30</v>
-      </c>
-      <c r="G49" s="98">
+      <c r="D49" t="s" s="108">
+        <v>350</v>
+      </c>
+      <c r="E49" s="105">
+        <v>1</v>
+      </c>
+      <c r="F49" s="101">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="101">
         <f>E49*F49</f>
-        <v>660</v>
-      </c>
-      <c r="H49" t="s" s="93">
+        <v>3800</v>
+      </c>
+      <c r="H49" t="s" s="109">
         <v>297</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="71"/>
       <c r="B50" s="129"/>
-      <c r="C50" s="107">
+      <c r="C50" s="106">
         <v>43750</v>
       </c>
-      <c r="D50" t="s" s="108">
-        <v>350</v>
-      </c>
-      <c r="E50" s="105">
-        <v>2</v>
-      </c>
-      <c r="F50" s="101">
-        <v>270</v>
-      </c>
-      <c r="G50" s="101">
+      <c r="D50" t="s" s="103">
+        <v>351</v>
+      </c>
+      <c r="E50" s="112">
+        <v>1</v>
+      </c>
+      <c r="F50" s="113">
+        <v>950</v>
+      </c>
+      <c r="G50" s="113">
         <f>E50*F50</f>
-        <v>540</v>
+        <v>950</v>
       </c>
       <c r="H50" t="s" s="109">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
@@ -12547,39 +12553,40 @@
         <v>43750</v>
       </c>
       <c r="D51" t="s" s="103">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E51" s="96">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F51" s="97">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G51" s="98">
-        <v>0</v>
+        <f>E51*F51</f>
+        <v>660</v>
       </c>
       <c r="H51" t="s" s="93">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="71"/>
       <c r="B52" s="129"/>
-      <c r="C52" s="132">
-        <v>43751</v>
-      </c>
-      <c r="D52" t="s" s="133">
-        <v>329</v>
-      </c>
-      <c r="E52" s="134">
-        <v>1</v>
-      </c>
-      <c r="F52" s="135">
-        <v>345</v>
-      </c>
-      <c r="G52" s="135">
+      <c r="C52" s="107">
+        <v>43750</v>
+      </c>
+      <c r="D52" t="s" s="108">
+        <v>352</v>
+      </c>
+      <c r="E52" s="105">
+        <v>2</v>
+      </c>
+      <c r="F52" s="101">
+        <v>270</v>
+      </c>
+      <c r="G52" s="101">
         <f>E52*F52</f>
-        <v>345</v>
+        <v>540</v>
       </c>
       <c r="H52" t="s" s="109">
         <v>293</v>
@@ -12587,67 +12594,88 @@
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="71"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="136"/>
-      <c r="D53" t="s" s="137">
-        <v>351</v>
-      </c>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="139">
+      <c r="B53" s="129"/>
+      <c r="C53" s="106">
+        <v>43750</v>
+      </c>
+      <c r="D53" t="s" s="103">
+        <v>328</v>
+      </c>
+      <c r="E53" s="96">
         <v>0</v>
       </c>
-      <c r="H53" s="140"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
+      <c r="F53" s="97">
+        <v>45</v>
+      </c>
+      <c r="G53" s="98">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s" s="93">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="73"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="132">
+        <v>43751</v>
+      </c>
+      <c r="D54" t="s" s="133">
+        <v>329</v>
+      </c>
+      <c r="E54" s="134">
+        <v>1</v>
+      </c>
+      <c r="F54" s="135">
+        <v>345</v>
+      </c>
+      <c r="G54" s="135">
+        <f>E54*F54</f>
+        <v>345</v>
+      </c>
+      <c r="H54" t="s" s="109">
+        <v>293</v>
+      </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="71"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="73"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
+      <c r="B55" s="126"/>
+      <c r="C55" s="136"/>
+      <c r="D55" t="s" s="137">
+        <v>353</v>
+      </c>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139">
+        <v>0</v>
+      </c>
+      <c r="H55" s="140"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="71"/>
       <c r="B56" s="72"/>
-      <c r="C56" s="126"/>
-      <c r="D56" t="s" s="143">
-        <v>352</v>
-      </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="142"/>
       <c r="H56" s="73"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="71"/>
       <c r="B57" s="72"/>
-      <c r="C57" s="126"/>
-      <c r="D57" t="s" s="144">
-        <v>353</v>
-      </c>
-      <c r="E57" s="77"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="72"/>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="71"/>
       <c r="B58" s="72"/>
       <c r="C58" s="126"/>
-      <c r="D58" t="s" s="145">
+      <c r="D58" t="s" s="143">
         <v>354</v>
       </c>
       <c r="E58" s="77"/>
@@ -12655,11 +12683,11 @@
       <c r="G58" s="72"/>
       <c r="H58" s="73"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="71"/>
       <c r="B59" s="72"/>
       <c r="C59" s="126"/>
-      <c r="D59" t="s" s="145">
+      <c r="D59" t="s" s="144">
         <v>355</v>
       </c>
       <c r="E59" s="77"/>
@@ -12667,11 +12695,11 @@
       <c r="G59" s="72"/>
       <c r="H59" s="73"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="71"/>
       <c r="B60" s="72"/>
       <c r="C60" s="126"/>
-      <c r="D60" t="s" s="146">
+      <c r="D60" t="s" s="145">
         <v>356</v>
       </c>
       <c r="E60" s="77"/>
@@ -12682,19 +12710,23 @@
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="71"/>
       <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="72"/>
+      <c r="C61" s="126"/>
+      <c r="D61" t="s" s="145">
+        <v>357</v>
+      </c>
+      <c r="E61" s="77"/>
       <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="73"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="71"/>
       <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="C62" s="126"/>
+      <c r="D62" t="s" s="146">
+        <v>358</v>
+      </c>
+      <c r="E62" s="77"/>
       <c r="F62" s="72"/>
       <c r="G62" s="72"/>
       <c r="H62" s="73"/>
@@ -12703,7 +12735,7 @@
       <c r="A63" s="71"/>
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
+      <c r="D63" s="82"/>
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
       <c r="G63" s="72"/>
@@ -12732,32 +12764,28 @@
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="71"/>
       <c r="B66" s="72"/>
-      <c r="C66" t="s" s="119">
-        <v>332</v>
-      </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="73"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="71"/>
       <c r="B67" s="72"/>
-      <c r="C67" t="s" s="119">
-        <v>333</v>
-      </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
       <c r="H67" s="73"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="71"/>
       <c r="B68" s="72"/>
       <c r="C68" t="s" s="119">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D68" s="120"/>
       <c r="E68" s="120"/>
@@ -12766,14 +12794,38 @@
       <c r="H68" s="73"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="122"/>
-      <c r="B69" s="147"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="124"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="72"/>
+      <c r="C69" t="s" s="119">
+        <v>333</v>
+      </c>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="73"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1">
+      <c r="A70" s="71"/>
+      <c r="B70" s="72"/>
+      <c r="C70" t="s" s="119">
+        <v>334</v>
+      </c>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="73"/>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="A71" s="122"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="123"/>
+      <c r="H71" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12806,13 +12858,13 @@
   <sheetData>
     <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="149">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="149">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s" s="149">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -12825,7 +12877,7 @@
         <v>2586.15</v>
       </c>
       <c r="C2" t="s" s="153">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -12838,7 +12890,7 @@
         <v>4417.5</v>
       </c>
       <c r="C3" t="s" s="157">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
@@ -12851,7 +12903,7 @@
         <v>4417.5</v>
       </c>
       <c r="C4" t="s" s="157">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="158"/>
@@ -12864,7 +12916,7 @@
         <v>6931.55</v>
       </c>
       <c r="C5" t="s" s="157">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
@@ -12874,10 +12926,10 @@
         <v>43741</v>
       </c>
       <c r="B6" s="156">
-        <v>6931.55</v>
+        <v>6959.55</v>
       </c>
       <c r="C6" t="s" s="157">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
